--- a/Result/checksun/水泥工業.xlsx
+++ b/Result/checksun/水泥工業.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -687,32 +687,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.78</v>
+        <v>1.95</v>
       </c>
       <c r="D2" t="n">
-        <v>530.117</v>
+        <v>311</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="J2" t="n">
-        <v>17.8</v>
+        <v>18.15</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -720,76 +720,76 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="b">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>-14607090</v>
+        <v>9449924</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ2" t="n">
         <v>1.41</v>
       </c>
       <c r="AK2" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -828,11 +828,11 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,63 +881,63 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D3" t="n">
-        <v>314.26</v>
+        <v>530.117</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15</v>
+        <v>17.8</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>1.93</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -947,43 +947,43 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>-11182766</v>
+        <v>-14607090</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ3" t="n">
         <v>1.41</v>
       </c>
       <c r="AK3" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1075,63 +1075,63 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.82</v>
+        <v>-3.75</v>
       </c>
       <c r="D4" t="n">
-        <v>1008.196</v>
+        <v>314.26</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-5.90</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="J4" t="n">
-        <v>17.8</v>
+        <v>17.15</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1141,27 +1141,27 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>7153501</v>
+        <v>-11182766</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ4" t="n">
         <v>1.41</v>
       </c>
       <c r="AK4" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1216,11 +1216,11 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1269,58 +1269,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84</v>
+        <v>-0.82</v>
       </c>
       <c r="D5" t="n">
-        <v>745.202</v>
+        <v>1008.196</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>-5.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>19.84</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="J5" t="n">
-        <v>17.95</v>
+        <v>17.8</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>-0.84</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1330,32 +1330,32 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
@@ -1367,11 +1367,11 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>14720848</v>
+        <v>7153501</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ5" t="n">
         <v>1.41</v>
       </c>
       <c r="AK5" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1463,73 +1463,73 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.12</v>
+        <v>0.84</v>
       </c>
       <c r="D6" t="n">
-        <v>731.292</v>
+        <v>745.202</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>17.8</v>
+        <v>17.95</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="b">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>15891385</v>
+        <v>14720848</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ6" t="n">
         <v>1.41</v>
       </c>
       <c r="AK6" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1657,63 +1657,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-7.08</v>
+        <v>1.12</v>
       </c>
       <c r="D7" t="n">
-        <v>629.039</v>
+        <v>731.292</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J7" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.12</v>
+        <v>1.93</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1723,43 +1723,43 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>12492708</v>
+        <v>15891385</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ7" t="n">
         <v>1.41</v>
       </c>
       <c r="AK7" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1851,63 +1851,63 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.27</v>
+        <v>-7.08</v>
       </c>
       <c r="D8" t="n">
-        <v>736.921</v>
+        <v>629.039</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>-5.62</v>
+        <v>3.03</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1917,43 +1917,43 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="W8" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X8" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>31762789</v>
+        <v>12492708</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1972,14 +1972,14 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ8" t="n">
         <v>1.41</v>
       </c>
       <c r="AK8" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
@@ -1992,11 +1992,11 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2045,58 +2045,58 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.02</v>
+        <v>0.27</v>
       </c>
       <c r="D9" t="n">
-        <v>514.857</v>
+        <v>736.921</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.13</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.75</v>
+        <v>18.8</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>-5.34</v>
+        <v>-3.58</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2106,48 +2106,48 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="W9" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>9490476</v>
+        <v>31762789</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ9" t="n">
         <v>1.41</v>
       </c>
       <c r="AK9" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2239,109 +2239,109 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.12</v>
+        <v>3.02</v>
       </c>
       <c r="D10" t="n">
-        <v>475.807</v>
+        <v>514.857</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.2</v>
+        <v>18.75</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>-2.25</v>
+        <v>-3.31</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>311</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>-90</v>
+        <v>-65</v>
       </c>
       <c r="X10" t="n">
-        <v>-37</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="b">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>-2286795</v>
+        <v>9490476</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -2360,14 +2360,14 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="AJ10" t="n">
         <v>1.41</v>
       </c>
       <c r="AK10" t="n">
-        <v>29.18</v>
+        <v>29.75</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -2380,11 +2380,11 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>10182</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2433,32 +2433,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.61</v>
+        <v>3.05</v>
       </c>
       <c r="D11" t="n">
-        <v>132.142</v>
+        <v>79.256</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.35</v>
+        <v>16.85</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2466,76 +2466,76 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="W11" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="Y11" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="b">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>54897</v>
+        <v>-3981182</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2554,14 +2554,14 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ11" t="n">
         <v>3.29</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2627,109 +2627,109 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.55</v>
+        <v>-0.61</v>
       </c>
       <c r="D12" t="n">
-        <v>190.967</v>
+        <v>132.142</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.45</v>
+        <v>16.35</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>-0.61</v>
+        <v>2.97</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="W12" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X12" t="n">
-        <v>-66</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>-3401023</v>
+        <v>54897</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ12" t="n">
         <v>3.29</v>
       </c>
       <c r="AK12" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2821,58 +2821,58 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.36</v>
+        <v>-1.55</v>
       </c>
       <c r="D13" t="n">
-        <v>319.88</v>
+        <v>190.967</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.7</v>
+        <v>16.45</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>-2.14</v>
+        <v>2.37</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2887,27 +2887,27 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="W13" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X13" t="n">
-        <v>-58</v>
+        <v>-66</v>
       </c>
       <c r="Y13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
@@ -2919,11 +2919,11 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>6715286</v>
+        <v>-3401023</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ13" t="n">
         <v>3.29</v>
       </c>
       <c r="AK13" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3015,93 +3015,93 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.81</v>
+        <v>7.36</v>
       </c>
       <c r="D14" t="n">
-        <v>356.832</v>
+        <v>319.88</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-4.18</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.2</v>
+        <v>0.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="W14" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X14" t="n">
-        <v>-68</v>
+        <v>-58</v>
       </c>
       <c r="Y14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3113,11 +3113,11 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>-16076964</v>
+        <v>6715286</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ14" t="n">
         <v>3.29</v>
       </c>
       <c r="AK14" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -3156,11 +3156,11 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3209,58 +3209,58 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9399999999999999</v>
+        <v>-2.81</v>
       </c>
       <c r="D15" t="n">
-        <v>436.577</v>
+        <v>356.832</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-4.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.95</v>
+        <v>15.5</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>2.45</v>
+        <v>8.01</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3270,32 +3270,32 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W15" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X15" t="n">
-        <v>-65</v>
+        <v>-68</v>
       </c>
       <c r="Y15" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z15" t="b">
         <v>0</v>
@@ -3307,11 +3307,11 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>-11293099</v>
+        <v>-16076964</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -3330,14 +3330,14 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ15" t="n">
         <v>3.29</v>
       </c>
       <c r="AK15" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -3350,11 +3350,11 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3403,93 +3403,93 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1093.533</v>
+        <v>436.577</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>59.17</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.8</v>
+        <v>15.95</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>3.36</v>
+        <v>5.34</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
           <t>-0.08</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>-5.33</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="W16" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X16" t="n">
-        <v>-109</v>
+        <v>-65</v>
       </c>
       <c r="Y16" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="b">
         <v>0</v>
@@ -3501,11 +3501,11 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>-16479208</v>
+        <v>-11293099</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -3524,14 +3524,14 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ16" t="n">
         <v>3.29</v>
       </c>
       <c r="AK16" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3597,93 +3597,93 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.28</v>
+        <v>-11.04</v>
       </c>
       <c r="D17" t="n">
-        <v>48.377</v>
+        <v>1093.533</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-3.16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>59.17</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.55</v>
+        <v>15.8</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>-7.34</v>
+        <v>6.23</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X17" t="n">
-        <v>-25</v>
+        <v>-109</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
@@ -3695,11 +3695,11 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>-2247427</v>
+        <v>-16479208</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -3718,14 +3718,14 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ17" t="n">
         <v>3.29</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3791,45 +3791,45 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.57</v>
+        <v>-0.28</v>
       </c>
       <c r="D18" t="n">
-        <v>102.425</v>
+        <v>48.377</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.6</v>
+        <v>17.55</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>-7.65</v>
+        <v>-4.15</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3838,46 +3838,46 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X18" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
@@ -3889,11 +3889,11 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>-6999249</v>
+        <v>-2247427</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ18" t="n">
         <v>3.29</v>
       </c>
       <c r="AK18" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
@@ -3932,11 +3932,11 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,45 +3985,45 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.86</v>
+        <v>0.57</v>
       </c>
       <c r="D19" t="n">
-        <v>183.758</v>
+        <v>102.425</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>-7.03</v>
+        <v>-4.45</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>79</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4032,11 +4032,11 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4051,27 +4051,27 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="X19" t="n">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="Y19" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
@@ -4083,11 +4083,11 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>-10793798</v>
+        <v>-6999249</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="AJ19" t="n">
         <v>3.29</v>
       </c>
       <c r="AK19" t="n">
-        <v>11.85</v>
+        <v>12.21</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -4126,11 +4126,11 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4179,32 +4179,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.82</v>
+        <v>1.84</v>
       </c>
       <c r="D20" t="n">
-        <v>701.55</v>
+        <v>123.326</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.6</v>
+        <v>13.85</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
@@ -4212,17 +4212,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -4230,58 +4230,58 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>-90</v>
       </c>
       <c r="X20" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="b">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>-5130854</v>
+        <v>-16041051</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ20" t="n">
         <v>3.24</v>
       </c>
       <c r="AK20" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -4320,11 +4320,11 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4373,50 +4373,50 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
       <c r="D21" t="n">
-        <v>584.47</v>
+        <v>701.55</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.85</v>
+        <v>13.6</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>-1.84</v>
+        <v>1.81</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -4439,43 +4439,43 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="W21" t="n">
         <v>-90</v>
       </c>
       <c r="X21" t="n">
-        <v>-38</v>
+        <v>-2</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="b">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>-2317599</v>
+        <v>-5130854</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ21" t="n">
         <v>3.24</v>
       </c>
       <c r="AK21" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -4514,11 +4514,11 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4567,25 +4567,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.24</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>916.551</v>
+        <v>584.47</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -4596,16 +4596,16 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>-1.84</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -4633,27 +4633,27 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>-90</v>
       </c>
       <c r="X22" t="n">
-        <v>-31</v>
+        <v>-38</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -4665,11 +4665,11 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>-3581276</v>
+        <v>-2317599</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ22" t="n">
         <v>3.24</v>
       </c>
       <c r="AK22" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -4708,11 +4708,11 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4761,50 +4761,50 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1.92</v>
+        <v>8.24</v>
       </c>
       <c r="D23" t="n">
-        <v>535.1130000000001</v>
+        <v>916.551</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>12.75</v>
+        <v>13.85</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -4812,22 +4812,22 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -4837,17 +4837,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W23" t="n">
         <v>-90</v>
       </c>
       <c r="X23" t="n">
-        <v>-60</v>
+        <v>-31</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="b">
         <v>0</v>
@@ -4859,11 +4859,11 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>-36244214</v>
+        <v>-3581276</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -4882,14 +4882,14 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ23" t="n">
         <v>3.24</v>
       </c>
       <c r="AK23" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -4902,11 +4902,11 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4946,7 +4946,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4955,50 +4955,50 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-2.33</v>
+        <v>-1.92</v>
       </c>
       <c r="D24" t="n">
-        <v>720.54</v>
+        <v>535.1130000000001</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>4.41</v>
+        <v>7.94</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -5006,42 +5006,42 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>-90</v>
       </c>
       <c r="X24" t="n">
-        <v>-56</v>
+        <v>-60</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -5053,11 +5053,11 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>-33761027</v>
+        <v>-36244214</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ24" t="n">
         <v>3.24</v>
       </c>
       <c r="AK24" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -5096,11 +5096,11 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5149,50 +5149,50 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-10.9</v>
+        <v>-2.33</v>
       </c>
       <c r="D25" t="n">
-        <v>1504.939</v>
+        <v>720.54</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>2.21</v>
+        <v>6.14</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5210,32 +5210,32 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-66.38</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="W25" t="n">
         <v>-90</v>
       </c>
       <c r="X25" t="n">
-        <v>-51</v>
+        <v>-56</v>
       </c>
       <c r="Y25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
@@ -5247,11 +5247,11 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>-22154374</v>
+        <v>-33761027</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -5270,14 +5270,14 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ25" t="n">
         <v>3.24</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
@@ -5290,11 +5290,11 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5343,50 +5343,50 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.67</v>
+        <v>-10.9</v>
       </c>
       <c r="D26" t="n">
-        <v>297.011</v>
+        <v>1504.939</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14.75</v>
+        <v>13.3</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>-8.460000000000001</v>
+        <v>3.97</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -5394,42 +5394,42 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-66.38</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="W26" t="n">
         <v>-90</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>-51</v>
       </c>
       <c r="Y26" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
@@ -5441,11 +5441,11 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>-6570373</v>
+        <v>-22154374</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -5464,14 +5464,14 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ26" t="n">
         <v>3.24</v>
       </c>
       <c r="AK26" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -5484,11 +5484,11 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5537,15 +5537,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.01</v>
+        <v>-0.67</v>
       </c>
       <c r="D27" t="n">
-        <v>153.258</v>
+        <v>297.011</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5555,32 +5555,32 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.85</v>
+        <v>14.75</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>-9.19</v>
+        <v>-6.5</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5603,27 +5603,27 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W27" t="n">
         <v>-90</v>
       </c>
       <c r="X27" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z27" t="b">
         <v>0</v>
@@ -5635,11 +5635,11 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>-8482693</v>
+        <v>-6570373</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -5658,14 +5658,14 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ27" t="n">
         <v>3.24</v>
       </c>
       <c r="AK27" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
@@ -5678,11 +5678,11 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5731,50 +5731,50 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.68</v>
+        <v>1.01</v>
       </c>
       <c r="D28" t="n">
-        <v>303.361</v>
+        <v>153.258</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="J28" t="n">
-        <v>14.7</v>
+        <v>14.85</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>-8.09</v>
+        <v>-7.22</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>123</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -5782,42 +5782,42 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="W28" t="n">
         <v>-90</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="Y28" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Z28" t="b">
         <v>0</v>
@@ -5829,11 +5829,11 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>-13235344</v>
+        <v>-8482693</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -5852,14 +5852,14 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="AJ28" t="n">
         <v>3.24</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.15</v>
+        <v>11.35</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
@@ -5872,11 +5872,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5914,61 +5914,53 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>1104</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="D29" t="n">
-        <v>560.37</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>409</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -5976,58 +5968,54 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.38</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>-65</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
-      <c r="AA29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>1405424</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -6046,14 +6034,14 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="AJ29" t="n">
         <v>3.03</v>
       </c>
       <c r="AK29" t="n">
-        <v>12.62</v>
+        <v>12.8</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -6066,11 +6054,11 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>18987</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -6098,7 +6086,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
@@ -6110,67 +6098,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-2.15</v>
+        <v>1.37</v>
       </c>
       <c r="D30" t="n">
-        <v>454.362</v>
+        <v>274.689</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>27.6</v>
+        <v>14.95</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6180,32 +6168,32 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X30" t="n">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="Z30" t="b">
         <v>0</v>
@@ -6217,15 +6205,15 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>-10210164</v>
+        <v>-10822377</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -6240,41 +6228,41 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK30" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -6283,7 +6271,7 @@
         </is>
       </c>
       <c r="AS30" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
@@ -6292,134 +6280,134 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.210000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="D31" t="n">
-        <v>1043.071</v>
+        <v>455.978</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>28.2</v>
+        <v>14.75</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>-3.49</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X31" t="n">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>-7</v>
+        <v>-36</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>31604339</v>
+        <v>-545490</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -6434,41 +6422,41 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK31" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -6477,7 +6465,7 @@
         </is>
       </c>
       <c r="AS31" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
@@ -6491,109 +6479,109 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-3.37</v>
+        <v>-0.68</v>
       </c>
       <c r="D32" t="n">
-        <v>1028.213</v>
+        <v>560.429</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-2.70</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>25.9</v>
+        <v>14.8</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>4.95</v>
+        <v>1</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-3.52</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X32" t="n">
-        <v>-42</v>
+        <v>-20</v>
       </c>
       <c r="Y32" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="Z32" t="b">
         <v>0</v>
@@ -6605,15 +6593,15 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>-32366445</v>
+        <v>-3226202</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -6628,41 +6616,41 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK32" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -6671,7 +6659,7 @@
         </is>
       </c>
       <c r="AS32" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
@@ -6685,109 +6673,109 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.37</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>1095.696</v>
+        <v>969.7910000000001</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>26.8</v>
+        <v>14.9</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.65</v>
+        <v>0.33</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-23.56</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X33" t="n">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="Y33" t="n">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -6799,15 +6787,15 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-38</t>
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>-1588152</v>
+        <v>-6884509</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -6822,41 +6810,41 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK33" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -6865,7 +6853,7 @@
         </is>
       </c>
       <c r="AS33" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
@@ -6879,109 +6867,109 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-11.05</v>
+        <v>-5.05</v>
       </c>
       <c r="D34" t="n">
-        <v>1296.181</v>
+        <v>686.604</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.02</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>26.7</v>
+        <v>13.55</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>2.02</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X34" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="Y34" t="n">
-        <v>-23</v>
+        <v>-45</v>
       </c>
       <c r="Z34" t="b">
         <v>0</v>
@@ -6993,15 +6981,15 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>-18052896</v>
+        <v>-38578600</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7016,41 +7004,41 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK34" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -7059,7 +7047,7 @@
         </is>
       </c>
       <c r="AS34" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
@@ -7073,109 +7061,109 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.17</v>
+        <v>-1.07</v>
       </c>
       <c r="D35" t="n">
-        <v>126.618</v>
+        <v>844.979</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.65</v>
+        <v>14.25</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>-8.81</v>
+        <v>4.68</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X35" t="n">
-        <v>-11</v>
+        <v>-58</v>
       </c>
       <c r="Y35" t="n">
-        <v>-28</v>
+        <v>-47</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
@@ -7187,15 +7175,15 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>-625940</v>
+        <v>-27211387</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -7210,41 +7198,41 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK35" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -7253,7 +7241,7 @@
         </is>
       </c>
       <c r="AS35" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
@@ -7267,109 +7255,109 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.37</v>
+        <v>-11.11</v>
       </c>
       <c r="D36" t="n">
-        <v>435.052</v>
+        <v>1197.948</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.6</v>
+        <v>14.4</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>-8.619999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X36" t="n">
-        <v>5</v>
+        <v>-58</v>
       </c>
       <c r="Y36" t="n">
-        <v>-24</v>
+        <v>-50</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
@@ -7381,15 +7369,15 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>-14873181</v>
+        <v>-10962310</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -7404,41 +7392,41 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK36" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
@@ -7447,7 +7435,7 @@
         </is>
       </c>
       <c r="AS36" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
@@ -7461,109 +7449,109 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2.03</v>
+        <v>0.31</v>
       </c>
       <c r="D37" t="n">
-        <v>586.5599999999999</v>
+        <v>123.455</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.95</v>
+        <v>1.39</v>
       </c>
       <c r="J37" t="n">
-        <v>29.2</v>
+        <v>16</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>-7.16</v>
+        <v>-7.02</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="X37" t="n">
-        <v>-5</v>
+        <v>-22</v>
       </c>
       <c r="Y37" t="n">
-        <v>-19</v>
+        <v>-50</v>
       </c>
       <c r="Z37" t="b">
         <v>0</v>
@@ -7575,15 +7563,15 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>-33232595</v>
+        <v>-4400015</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>環泥</t>
+          <t>嘉泥</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -7598,41 +7586,41 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>3.03</v>
+        <v>1.17</v>
       </c>
       <c r="AK37" t="n">
-        <v>12.62</v>
+        <v>31.15</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>-9.19%</t>
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>18712</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
+          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>環泥-水泥工業-上市</t>
+          <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -7641,7 +7629,7 @@
         </is>
       </c>
       <c r="AS37" t="n">
-        <v>34.45</v>
+        <v>31.62</v>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
@@ -7655,14 +7643,14 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品、預拌混凝土</t>
+          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7671,50 +7659,50 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.34</v>
+        <v>0.95</v>
       </c>
       <c r="D38" t="n">
-        <v>455.978</v>
+        <v>275.521</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J38" t="n">
-        <v>14.75</v>
+        <v>15.95</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-6.69</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>275</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -7722,58 +7710,58 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W38" t="n">
         <v>-100</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y38" t="n">
-        <v>-36</v>
+        <v>-49</v>
       </c>
       <c r="Z38" t="b">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>-545490</v>
+        <v>-18569008</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -7792,14 +7780,14 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="AJ38" t="n">
         <v>1.17</v>
       </c>
       <c r="AK38" t="n">
-        <v>30.73</v>
+        <v>31.15</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
@@ -7812,11 +7800,11 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>11814</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -7856,102 +7844,102 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.68</v>
+        <v>-0.99</v>
       </c>
       <c r="D39" t="n">
-        <v>560.429</v>
+        <v>4585.133</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.8</v>
+        <v>44.85</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X39" t="n">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="Y39" t="n">
-        <v>-37</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="b">
         <v>0</v>
@@ -7963,15 +7951,15 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>-3226202</v>
+        <v>501952538</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -7986,50 +7974,50 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK39" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS39" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
@@ -8043,74 +8031,74 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9.119999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="D40" t="n">
-        <v>969.7910000000001</v>
+        <v>6839.217</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="J40" t="n">
-        <v>14.9</v>
+        <v>45.3</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>-1.02</v>
+        <v>-1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8120,52 +8108,52 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X40" t="n">
-        <v>-36</v>
+        <v>-18</v>
       </c>
       <c r="Y40" t="n">
-        <v>-38</v>
+        <v>24</v>
       </c>
       <c r="Z40" t="b">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>-38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>-6884509</v>
+        <v>1175140890</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -8180,50 +8168,50 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK40" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS40" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
@@ -8237,109 +8225,109 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-5.05</v>
+        <v>0.23</v>
       </c>
       <c r="D41" t="n">
-        <v>686.604</v>
+        <v>8831.953</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J41" t="n">
-        <v>13.55</v>
+        <v>45.25</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>8.140000000000001</v>
+        <v>-0.89</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X41" t="n">
-        <v>-55</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>-45</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="b">
         <v>0</v>
@@ -8351,15 +8339,15 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>-38578600</v>
+        <v>34640040</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -8374,50 +8362,50 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK41" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS41" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
@@ -8426,114 +8414,114 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.07</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>844.979</v>
+        <v>10223.66</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>14.25</v>
+        <v>45.15</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>3.39</v>
+        <v>-0.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X42" t="n">
-        <v>-58</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="n">
-        <v>-47</v>
+        <v>30</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
@@ -8545,15 +8533,15 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>-27211387</v>
+        <v>316324068</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -8568,50 +8556,50 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK42" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS42" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
@@ -8620,134 +8608,134 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-11.11</v>
+        <v>-1.27</v>
       </c>
       <c r="D43" t="n">
-        <v>1197.948</v>
+        <v>18836.681</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>36.87</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J43" t="n">
-        <v>14.4</v>
+        <v>43.3</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>2.37</v>
+        <v>3.46</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X43" t="n">
-        <v>-58</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>-10962310</v>
+        <v>-326167947</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -8762,50 +8750,50 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK43" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS43" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT43" t="inlineStr">
         <is>
@@ -8819,109 +8807,109 @@
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.31</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>123.455</v>
+        <v>15684.696</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>30.70</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.39</v>
+        <v>0.96</v>
       </c>
       <c r="J44" t="n">
-        <v>16</v>
+        <v>43.85</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>-8.470000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X44" t="n">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
-        <v>-50</v>
+        <v>27</v>
       </c>
       <c r="Z44" t="b">
         <v>0</v>
@@ -8933,15 +8921,15 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>-4400015</v>
+        <v>895034749</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -8956,50 +8944,50 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ44" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK44" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS44" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT44" t="inlineStr">
         <is>
@@ -9013,129 +9001,137 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.95</v>
+        <v>-11.05</v>
       </c>
       <c r="D45" t="n">
-        <v>275.521</v>
+        <v>4118.408</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="J45" t="n">
-        <v>15.95</v>
+        <v>42.55</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>-8.140000000000001</v>
+        <v>5.13</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>-49</v>
+        <v>24</v>
       </c>
       <c r="Z45" t="b">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
+        <v>-2</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>-18569008</v>
+        <v>809006039</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -9150,50 +9146,50 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ45" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK45" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS45" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
@@ -9207,109 +9203,109 @@
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.88</v>
+        <v>0.64</v>
       </c>
       <c r="D46" t="n">
-        <v>682.407</v>
+        <v>8285.805</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="J46" t="n">
-        <v>15.8</v>
+        <v>47.25</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>-7.12</v>
+        <v>-5.35</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="n">
-        <v>-45</v>
+        <v>25</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -9317,19 +9313,27 @@
       <c r="AA46" t="n">
         <v>0</v>
       </c>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>-25439039</v>
+        <v>323390746</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>嘉泥</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -9344,50 +9348,50 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ46" t="n">
-        <v>1.17</v>
+        <v>6.01</v>
       </c>
       <c r="AK46" t="n">
-        <v>30.73</v>
+        <v>12.36</v>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>-9.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>嘉泥-水泥工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS46" t="n">
-        <v>31.62</v>
+        <v>51.13</v>
       </c>
       <c r="AT46" t="inlineStr">
         <is>
@@ -9396,63 +9400,71 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
+          <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12640.236</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>46.95</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>-4.68</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -9460,54 +9472,66 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>90</v>
+      </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z47" t="b">
         <v>0</v>
       </c>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>-455695067</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -9526,14 +9550,14 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="AJ47" t="n">
         <v>6.01</v>
       </c>
       <c r="AK47" t="n">
-        <v>12.48</v>
+        <v>12.36</v>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
@@ -9546,11 +9570,11 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>160659</t>
+          <t>159063</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -9565,7 +9589,7 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS47" t="n">
@@ -9590,7 +9614,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9599,25 +9623,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>21859.144</v>
+        <v>15574.436</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18.41</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -9632,12 +9656,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9650,7 +9674,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9665,43 +9689,43 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="W48" t="n">
         <v>-95</v>
       </c>
       <c r="X48" t="n">
-        <v>-23</v>
+        <v>18</v>
       </c>
       <c r="Y48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z48" t="b">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>-133863812</v>
+        <v>-2086687440</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -9740,7 +9764,7 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
@@ -9772,7 +9796,7 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
@@ -9784,7 +9808,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9793,45 +9817,45 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-2.48</v>
+        <v>-0.33</v>
       </c>
       <c r="D49" t="n">
-        <v>32259.026</v>
+        <v>21859.144</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27.17</t>
+          <t>18.41</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9844,58 +9868,58 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>-95</v>
       </c>
       <c r="X49" t="n">
-        <v>-105</v>
+        <v>-23</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z49" t="b">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>-790282134</v>
+        <v>-133863812</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -9934,7 +9958,7 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
@@ -9978,7 +10002,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9987,50 +10011,50 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7.27</v>
+        <v>-2.48</v>
       </c>
       <c r="D50" t="n">
-        <v>48104.987</v>
+        <v>32259.026</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>40.51</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>30.75</v>
+        <v>30</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>-2.84</v>
+        <v>-0.33</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -10038,42 +10062,42 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>-95</v>
       </c>
       <c r="X50" t="n">
-        <v>-94</v>
+        <v>-105</v>
       </c>
       <c r="Y50" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="b">
         <v>0</v>
@@ -10085,11 +10109,11 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>-1981003883</v>
+        <v>-790282134</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -10128,7 +10152,7 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
@@ -10172,7 +10196,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10181,50 +10205,50 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-3.97</v>
+        <v>7.27</v>
       </c>
       <c r="D51" t="n">
-        <v>45183.26</v>
+        <v>48104.987</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>38.05</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>28.5</v>
+        <v>30.75</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>4.68</v>
+        <v>-2.84</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -10232,42 +10256,42 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>-95</v>
       </c>
       <c r="X51" t="n">
-        <v>-110</v>
+        <v>-94</v>
       </c>
       <c r="Y51" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z51" t="b">
         <v>0</v>
@@ -10279,11 +10303,11 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>-6999026869</v>
+        <v>-1981003883</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -10322,7 +10346,7 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
@@ -10366,7 +10390,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10375,50 +10399,50 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.5</v>
+        <v>-3.97</v>
       </c>
       <c r="D52" t="n">
-        <v>73115.113</v>
+        <v>45183.26</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>61.57</t>
+          <t>38.05</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>29.65</v>
+        <v>28.5</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.84</v>
+        <v>4.68</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -10426,32 +10450,32 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -10461,7 +10485,7 @@
         <v>-110</v>
       </c>
       <c r="Y52" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="Z52" t="b">
         <v>0</v>
@@ -10473,11 +10497,11 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>-5939947767</v>
+        <v>-6999026869</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -10516,7 +10540,7 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
@@ -10560,7 +10584,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10569,50 +10593,50 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-8.9</v>
+        <v>-0.5</v>
       </c>
       <c r="D53" t="n">
-        <v>118749.437</v>
+        <v>73115.113</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>61.57</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>29.8</v>
+        <v>29.65</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.33</v>
+        <v>0.84</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -10620,42 +10644,42 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>-95</v>
       </c>
       <c r="X53" t="n">
-        <v>-74</v>
+        <v>-110</v>
       </c>
       <c r="Y53" t="n">
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="Z53" t="b">
         <v>0</v>
@@ -10667,11 +10691,11 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>-3354223169</v>
+        <v>-5939947767</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -10710,7 +10734,7 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
@@ -10754,7 +10778,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10763,50 +10787,50 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
       <c r="D54" t="n">
-        <v>7749.227</v>
+        <v>118749.437</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>32.4</v>
+        <v>29.8</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>-8.359999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -10814,42 +10838,42 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>-95</v>
       </c>
       <c r="X54" t="n">
-        <v>-5</v>
+        <v>-74</v>
       </c>
       <c r="Y54" t="n">
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="Z54" t="b">
         <v>0</v>
@@ -10861,11 +10885,11 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>-797435966</v>
+        <v>-3354223169</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -10904,7 +10928,7 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
@@ -10948,7 +10972,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10957,25 +10981,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>13189.116</v>
+        <v>7749.227</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -10990,12 +11014,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -11008,7 +11032,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11023,27 +11047,27 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-7.43</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>-95</v>
       </c>
       <c r="X55" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="Y55" t="n">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="Z55" t="b">
         <v>0</v>
@@ -11055,11 +11079,11 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>-1011382666</v>
+        <v>-797435966</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -11098,7 +11122,7 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
@@ -11142,7 +11166,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11151,50 +11175,50 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-2.45</v>
+        <v>1.09</v>
       </c>
       <c r="D56" t="n">
-        <v>30183.846</v>
+        <v>13189.116</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>32.05</v>
+        <v>32.4</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>-7.19</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>21859</t>
+          <t>15574</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -11202,12 +11226,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -11217,27 +11241,27 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W56" t="n">
         <v>-95</v>
       </c>
       <c r="X56" t="n">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="Y56" t="n">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
@@ -11249,11 +11273,11 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>-998432069</v>
+        <v>-1011382666</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -11292,7 +11316,7 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>18.36</v>
+        <v>18.59</v>
       </c>
       <c r="AO56" t="inlineStr">
         <is>

--- a/Result/checksun/水泥工業.xlsx
+++ b/Result/checksun/水泥工業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS84"/>
+  <dimension ref="A1:AS90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>1616920</v>
+        <v>22632085</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1164297</v>
+        <v>34803718</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>252398</v>
+        <v>34852534</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-8284311</v>
+        <v>33666610</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>8496644</v>
+        <v>29280794</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>17743441</v>
+        <v>24852195</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>29299476</v>
+        <v>25570183</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>25142777</v>
+        <v>2827370</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>16856695</v>
+        <v>-6106579</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>12651445</v>
+        <v>-17866936</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>-4358627</v>
+        <v>-18288058</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-9747941</v>
+        <v>-12570754</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-6038884</v>
+        <v>8800299</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-3029555</v>
+        <v>15027950</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>2322630</v>
+        <v>16136747</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>4391580</v>
+        <v>12529265</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>12491440</v>
+        <v>10653077</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>12836432</v>
+        <v>6931294</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>10447603</v>
+        <v>2151191</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>5566065</v>
+        <v>-5070915</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>977685</v>
+        <v>-9276771</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-2309918</v>
+        <v>-13502723</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-7404428</v>
+        <v>-13501365</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-6882823</v>
+        <v>-14148259</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>8768743</v>
+        <v>34784505</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>5270413</v>
+        <v>30837816</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-3837742</v>
+        <v>26212589</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-5276436</v>
+        <v>27565447</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>11084235</v>
+        <v>27078256</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>26294701</v>
+        <v>29942567</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>31292198</v>
+        <v>32330915</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>14483168</v>
+        <v>13971688</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>3755630</v>
+        <v>3392717</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>1549685</v>
+        <v>-940332</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>1510853</v>
+        <v>-317519</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-107764</v>
+        <v>-10822198</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>7583419</v>
+        <v>70749603</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>33939267</v>
+        <v>90209542</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>30395975</v>
+        <v>88481991</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>27467726</v>
+        <v>86443982</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>30835334</v>
+        <v>81914665</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>34145492</v>
+        <v>80974664</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>35698458</v>
+        <v>68196519</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>25434941</v>
+        <v>56584615</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>23940524</v>
+        <v>39798562</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>23277798</v>
+        <v>19305515</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>25644390</v>
+        <v>23310620</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>22888648</v>
+        <v>-651967</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>513797</v>
+        <v>28993818</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-6779306</v>
+        <v>20129207</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>4307972</v>
+        <v>28407962</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>5424038</v>
+        <v>29183069</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>21720355</v>
+        <v>34572927</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>24474230</v>
+        <v>27611200</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>23055983</v>
+        <v>21410162</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>5188158</v>
+        <v>9615688</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>-374240</v>
+        <v>4173439</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>703048</v>
+        <v>-1502832</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>7664414</v>
+        <v>7065094</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>3511210</v>
+        <v>-1991840</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>249486626</v>
+        <v>1028873040</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>-382083341</v>
+        <v>977264484</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>65299297</v>
+        <v>920114934</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>262642334</v>
+        <v>430693423</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>942437192</v>
+        <v>1010299232</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>554890120</v>
+        <v>417467687</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>516744080</v>
+        <v>265844664</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>416910633</v>
+        <v>-194606230</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>299925517</v>
+        <v>202397394</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-348692991</v>
+        <v>-581690013</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>-349048593</v>
+        <v>-1032099976</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-437347950</v>
+        <v>-444568899</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>205219000</v>
+        <v>954030249</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>260669177</v>
+        <v>1591777032</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14266,26 +14266,26 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.66</v>
+        <v>1.46</v>
       </c>
       <c r="D76" t="n">
-        <v>8838.028</v>
+        <v>8175.754</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="H76" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1.13</v>
+        <v>-0.32</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -14322,27 +14322,27 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>-90</v>
       </c>
       <c r="V76" t="n">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="W76" t="n">
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="X76" t="b">
         <v>0</v>
@@ -14359,11 +14359,11 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>446236724</v>
+        <v>1591777032</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS76" t="inlineStr">
@@ -14446,7 +14446,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -14455,26 +14455,26 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.98</v>
+        <v>0.66</v>
       </c>
       <c r="D77" t="n">
-        <v>8641.74</v>
+        <v>8838.028</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>30.55</v>
+        <v>30.75</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -14511,30 +14511,30 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>-90</v>
       </c>
       <c r="V77" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
@@ -14548,11 +14548,11 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-246676522</v>
+        <v>1077363968</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -14644,26 +14644,26 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="D78" t="n">
-        <v>14306.874</v>
+        <v>8838.028</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>30.85</v>
+        <v>30.75</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -14690,40 +14690,40 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>-90</v>
       </c>
       <c r="V78" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W78" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
@@ -14737,11 +14737,11 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>840640143</v>
+        <v>1077363968</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="AR78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS78" t="inlineStr">
@@ -14824,7 +14824,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -14833,19 +14833,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.16</v>
+        <v>-0.98</v>
       </c>
       <c r="D79" t="n">
-        <v>13820.764</v>
+        <v>8641.74</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.26</v>
+        <v>0.98</v>
       </c>
       <c r="H79" t="n">
         <v>30.55</v>
@@ -14879,50 +14879,58 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>-90</v>
       </c>
       <c r="V79" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W79" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="X79" t="b">
         <v>1</v>
       </c>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>767285928</v>
+        <v>1123899575</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15005,7 +15013,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -15014,26 +15022,26 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.15</v>
+        <v>-0.98</v>
       </c>
       <c r="D80" t="n">
-        <v>26935.355</v>
+        <v>8641.74</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>22.68</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.35</v>
+        <v>0.98</v>
       </c>
       <c r="H80" t="n">
-        <v>30.6</v>
+        <v>30.55</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -15060,50 +15068,58 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>-90</v>
       </c>
       <c r="V80" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W80" t="n">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="X80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>995487771</v>
+        <v>1123899575</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15174,7 +15190,7 @@
       </c>
       <c r="AR80" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS80" t="inlineStr">
@@ -15186,7 +15202,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -15195,26 +15211,26 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D81" t="n">
-        <v>12364.287</v>
+        <v>14306.874</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="H81" t="n">
-        <v>29.95</v>
+        <v>30.85</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -15228,7 +15244,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -15246,45 +15262,53 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>-90</v>
       </c>
       <c r="V81" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="W81" t="n">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="X81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>490467712</v>
+        <v>972903241</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15355,7 +15379,7 @@
       </c>
       <c r="AR81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS81" t="inlineStr">
@@ -15367,7 +15391,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -15376,26 +15400,26 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D82" t="n">
-        <v>6581.95</v>
+        <v>14306.874</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="H82" t="n">
-        <v>29.35</v>
+        <v>30.85</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.63</v>
+        <v>0.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -15409,7 +15433,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15422,50 +15446,58 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>-90</v>
       </c>
       <c r="V82" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="W82" t="n">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="X82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>-136158684</v>
+        <v>972903241</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15548,7 +15580,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -15557,26 +15589,26 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.34</v>
+        <v>-0.16</v>
       </c>
       <c r="D83" t="n">
-        <v>10776.078</v>
+        <v>13820.764</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="H83" t="n">
-        <v>29.35</v>
+        <v>30.55</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.63</v>
+        <v>1.77</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -15590,7 +15622,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15603,50 +15635,50 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>-90</v>
       </c>
       <c r="V83" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="W83" t="n">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="X83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>375088326</v>
+        <v>167086768</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15717,7 +15749,7 @@
       </c>
       <c r="AR83" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS83" t="inlineStr">
@@ -15729,7 +15761,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -15738,26 +15770,26 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="D84" t="n">
-        <v>8902.268</v>
+        <v>13820.764</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="H84" t="n">
-        <v>29.25</v>
+        <v>30.55</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.95</v>
+        <v>1.77</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -15771,7 +15803,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -15784,50 +15816,50 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>-90</v>
       </c>
       <c r="V84" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="W84" t="n">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="X84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>-358204614</v>
+        <v>167086768</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15902,6 +15934,1092 @@
         </is>
       </c>
       <c r="AS84" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D85" t="n">
+        <v>26935.355</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V85" t="n">
+        <v>38</v>
+      </c>
+      <c r="W85" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB85" t="n">
+        <v>-2816760</v>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG85" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK85" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP85" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D86" t="n">
+        <v>26935.355</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V86" t="n">
+        <v>38</v>
+      </c>
+      <c r="W86" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB86" t="n">
+        <v>-2816760</v>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG86" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK86" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP86" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12364.287</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H87" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V87" t="n">
+        <v>13</v>
+      </c>
+      <c r="W87" t="n">
+        <v>-23</v>
+      </c>
+      <c r="X87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="AB87" t="n">
+        <v>-1227940171</v>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG87" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK87" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP87" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6581.95</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H88" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V88" t="n">
+        <v>10</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-22</v>
+      </c>
+      <c r="X88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AB88" t="n">
+        <v>-2164318381</v>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG88" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK88" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP88" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10776.078</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V89" t="n">
+        <v>7</v>
+      </c>
+      <c r="W89" t="n">
+        <v>-23</v>
+      </c>
+      <c r="X89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="AB89" t="n">
+        <v>-2435987606</v>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG89" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK89" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM89" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP89" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8902.268</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V90" t="n">
+        <v>6</v>
+      </c>
+      <c r="W90" t="n">
+        <v>-22</v>
+      </c>
+      <c r="X90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AB90" t="n">
+        <v>-3407790383</v>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG90" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK90" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP90" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS90" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>

--- a/Result/checksun/水泥工業.xlsx
+++ b/Result/checksun/水泥工業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS84"/>
+  <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -763,79 +773,85 @@
       <c r="AB2" t="n">
         <v>4006.67393232841</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>2334.599965732888</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -944,79 +960,85 @@
       <c r="AB3" t="n">
         <v>5220.80041756051</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>3877.830708011891</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -1125,79 +1147,85 @@
       <c r="AB4" t="n">
         <v>5357.327412059114</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>4433.302268061586</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -1306,79 +1334,85 @@
       <c r="AB5" t="n">
         <v>6190.935632034952</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>4507.530809656214</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -1487,79 +1521,85 @@
       <c r="AB6" t="n">
         <v>6157.202367959007</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>-1251.630936019081</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -1668,79 +1708,85 @@
       <c r="AB7" t="n">
         <v>4767.117577740243</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>2618.10675870943</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -1849,79 +1895,85 @@
       <c r="AB8" t="n">
         <v>5235.976126759938</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>5129.038701355254</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2030,79 +2082,85 @@
       <c r="AB9" t="n">
         <v>4612.80879725141</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>3591.917315306687</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2211,79 +2269,85 @@
       <c r="AB10" t="n">
         <v>3612.885411966452</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>5570.473857761115</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2392,79 +2456,85 @@
       <c r="AB11" t="n">
         <v>2388.193668863562</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>5504.825337828622</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2573,79 +2643,85 @@
       <c r="AB12" t="n">
         <v>-3256.236938553458</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>5188.566083225692</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2754,79 +2830,85 @@
       <c r="AB13" t="n">
         <v>-3495.595228283732</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>3349.802830018507</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>東泥</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>30.31</v>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>8.73%</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>11097</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>水泥47.27%、預拌混凝土24.10%、銷售土地及房屋16.03%、爐石粉等7.16%、租賃5.44% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>東泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>16.57</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品</t>
         </is>
@@ -2935,79 +3017,85 @@
       <c r="AB14" t="n">
         <v>2668.623053186793</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>-2279.736388269486</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -3116,79 +3204,85 @@
       <c r="AB15" t="n">
         <v>3618.710129314035</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>957.6831417540981</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -3297,79 +3391,85 @@
       <c r="AB16" t="n">
         <v>3181.785347882537</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>-2356.745849683415</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -3478,79 +3578,85 @@
       <c r="AB17" t="n">
         <v>3673.989657034979</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>-1944.071500742707</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -3659,79 +3765,85 @@
       <c r="AB18" t="n">
         <v>3746.080618459779</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>2054.270916894848</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -3840,79 +3952,85 @@
       <c r="AB19" t="n">
         <v>2959.427985270127</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>-1707.744126032937</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AR19" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4021,79 +4139,85 @@
       <c r="AB20" t="n">
         <v>3105.629082810759</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>2442.422363146882</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4202,79 +4326,85 @@
       <c r="AB21" t="n">
         <v>2392.487408535309</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>-3765.576317112694</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AR21" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4383,79 +4513,85 @@
       <c r="AB22" t="n">
         <v>1064.932861733546</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>-4312.895663008787</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4564,79 +4700,85 @@
       <c r="AB23" t="n">
         <v>-2493.620059271259</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>-4796.375819303571</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AR23" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4745,79 +4887,85 @@
       <c r="AB24" t="n">
         <v>-3509.807259665408</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>-5409.567820075833</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -4926,79 +5074,85 @@
       <c r="AB25" t="n">
         <v>-3489.685659196255</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>-6003.992088602383</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>信大</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>2.89</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>13.54</v>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>10.43%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>3.20%</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>5868</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>水泥95.48%、再利用銷售3.46%、其他租賃業務1.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>信大-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AR25" t="n">
         <v>24.77</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -5107,79 +5261,85 @@
       <c r="AB26" t="n">
         <v>6066.107565811869</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>6140.189573620672</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>3</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AR26" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -5288,79 +5448,85 @@
       <c r="AB27" t="n">
         <v>6471.134367326953</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>6529.535511810928</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>3</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -5469,79 +5635,85 @@
       <c r="AB28" t="n">
         <v>5988.428675370526</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>5086.584119033126</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>3</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -5650,79 +5822,85 @@
       <c r="AB29" t="n">
         <v>5627.794772377543</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>3574.865032417308</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>3</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AR29" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -5831,79 +6009,85 @@
       <c r="AB30" t="n">
         <v>5084.411765386434</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>4464.298153125528</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>3</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AR30" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6012,79 +6196,85 @@
       <c r="AB31" t="n">
         <v>5348.213533508175</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>3845.386326495688</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>3</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6193,79 +6383,85 @@
       <c r="AB32" t="n">
         <v>5127.757502066571</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>1981.910946536196</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>3</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6374,79 +6570,85 @@
       <c r="AB33" t="n">
         <v>5401.667983132617</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>-3532.210922354439</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>3</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK33" t="n">
+      <c r="AM33" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AR33" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6555,79 +6757,85 @@
       <c r="AB34" t="n">
         <v>5644.244059216433</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>-3701.026209039866</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>3</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6736,79 +6944,85 @@
       <c r="AB35" t="n">
         <v>3867.106541071761</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>-5413.929995853289</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>3</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AR35" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -6917,79 +7131,85 @@
       <c r="AB36" t="n">
         <v>950.9295452345564</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>-6733.616264682745</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>3</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AR36" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -7098,79 +7318,85 @@
       <c r="AB37" t="n">
         <v>871.3518233182277</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>-7312.488358965093</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>幸福</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>3</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AJ37" t="n">
         <v>12.34</v>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>19.54%</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="AK37" t="n">
+      <c r="AM37" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>6192</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>水泥80.16%、其他10.88%、石材8.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>幸福-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AR37" t="n">
         <v>12.39</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -7287,79 +7513,85 @@
       <c r="AB38" t="n">
         <v>8144.530311810498</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>9681.828494659467</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AI38" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AJ38" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK38" t="n">
+      <c r="AM38" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP38" t="n">
+      <c r="AR38" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -7476,79 +7708,85 @@
       <c r="AB39" t="n">
         <v>8877.826085253078</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>10460.69954639746</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AJ39" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK39" t="n">
+      <c r="AM39" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP39" t="n">
+      <c r="AR39" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -7665,79 +7903,85 @@
       <c r="AB40" t="n">
         <v>8834.558393038104</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>9270.342280628045</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI40" t="inlineStr">
+      <c r="AK40" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AL40" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK40" t="n">
+      <c r="AM40" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP40" t="n">
+      <c r="AR40" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -7854,79 +8098,85 @@
       <c r="AB41" t="n">
         <v>9937.370527458461</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>9252.279232708013</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AI41" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AK41" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AL41" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK41" t="n">
+      <c r="AM41" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP41" t="n">
+      <c r="AR41" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8043,79 +8293,85 @@
       <c r="AB42" t="n">
         <v>9793.782670653867</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>10230.16343955462</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AJ42" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI42" t="inlineStr">
+      <c r="AK42" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ42" t="inlineStr">
+      <c r="AL42" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK42" t="n">
+      <c r="AM42" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP42" t="n">
+      <c r="AR42" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8232,79 +8488,85 @@
       <c r="AB43" t="n">
         <v>9803.590821734657</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>8255.038643156069</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AI43" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AJ43" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ43" t="inlineStr">
+      <c r="AL43" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK43" t="n">
+      <c r="AM43" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP43" t="n">
+      <c r="AR43" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8421,79 +8683,85 @@
       <c r="AB44" t="n">
         <v>9364.865936039874</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>9125.225641045814</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AJ44" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI44" t="inlineStr">
+      <c r="AK44" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ44" t="inlineStr">
+      <c r="AL44" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK44" t="n">
+      <c r="AM44" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP44" t="n">
+      <c r="AR44" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8610,79 +8878,85 @@
       <c r="AB45" t="n">
         <v>8645.372577280867</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>6472.543858484081</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AJ45" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI45" t="inlineStr">
+      <c r="AK45" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ45" t="inlineStr">
+      <c r="AL45" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK45" t="n">
+      <c r="AM45" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP45" t="n">
+      <c r="AR45" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8799,79 +9073,85 @@
       <c r="AB46" t="n">
         <v>8610.920450219013</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>6252.182418963797</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AI46" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ46" t="inlineStr">
+      <c r="AL46" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK46" t="n">
+      <c r="AM46" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP46" t="n">
+      <c r="AR46" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -8988,79 +9268,85 @@
       <c r="AB47" t="n">
         <v>7059.37461819388</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>5863.5751039788</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AJ47" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr">
+      <c r="AL47" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK47" t="n">
+      <c r="AM47" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP47" t="n">
+      <c r="AR47" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -9177,79 +9463,85 @@
       <c r="AB48" t="n">
         <v>5234.923972704857</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>2668.780995136169</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AJ48" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ48" t="inlineStr">
+      <c r="AL48" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK48" t="n">
+      <c r="AM48" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP48" t="n">
+      <c r="AR48" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -9358,79 +9650,85 @@
       <c r="AB49" t="n">
         <v>5532.670151021114</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>-3388.488453573363</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>環泥</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>5.83</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AI49" t="n">
         <v>2.81</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AJ49" t="n">
         <v>13.19</v>
       </c>
-      <c r="AI49" t="inlineStr">
+      <c r="AK49" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="AJ49" t="inlineStr">
+      <c r="AL49" t="inlineStr">
         <is>
           <t>13.85%</t>
         </is>
       </c>
-      <c r="AK49" t="n">
+      <c r="AM49" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>20017</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>混凝土64.47%、水泥21.66%、石膏板13.55%、其他0.33% (2024年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>環泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="AP49" t="n">
+      <c r="AR49" t="n">
         <v>34.9</v>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品、預拌混凝土</t>
         </is>
@@ -9547,79 +9845,85 @@
       <c r="AB50" t="n">
         <v>4696.214965267241</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>4722.515431419997</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AI50" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AJ50" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP50" t="n">
+      <c r="AR50" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -9736,79 +10040,85 @@
       <c r="AB51" t="n">
         <v>5084.79911107607</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>5334.561931405427</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AJ51" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP51" t="n">
+      <c r="AR51" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -9925,79 +10235,85 @@
       <c r="AB52" t="n">
         <v>4952.887339724173</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>4987.703780298104</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AJ52" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AK52" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP52" t="n">
+      <c r="AR52" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -10114,79 +10430,85 @@
       <c r="AB53" t="n">
         <v>4739.951793003806</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>3502.388185224476</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AJ53" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI53" t="inlineStr">
+      <c r="AK53" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP53" t="n">
+      <c r="AR53" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -10303,79 +10625,85 @@
       <c r="AB54" t="n">
         <v>5588.899623360577</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>5708.732784077391</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AJ54" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI54" t="inlineStr">
+      <c r="AK54" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP54" t="n">
+      <c r="AR54" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -10492,79 +10820,85 @@
       <c r="AB55" t="n">
         <v>5628.650815248713</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>4597.519983643356</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AI55" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AJ55" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI55" t="inlineStr">
+      <c r="AK55" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP55" t="n">
+      <c r="AR55" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -10681,79 +11015,85 @@
       <c r="AB56" t="n">
         <v>5723.430701947915</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>3487.337092969362</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AJ56" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI56" t="inlineStr">
+      <c r="AK56" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP56" t="n">
+      <c r="AR56" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -10870,79 +11210,85 @@
       <c r="AB57" t="n">
         <v>4957.717014917249</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>-3208.884853029164</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AI57" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AJ57" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI57" t="inlineStr">
+      <c r="AK57" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP57" t="n">
+      <c r="AR57" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -11059,79 +11405,85 @@
       <c r="AB58" t="n">
         <v>4797.99833263831</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>-3390.904746524148</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AI58" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AJ58" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI58" t="inlineStr">
+      <c r="AK58" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP58" t="n">
+      <c r="AR58" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -11248,79 +11600,85 @@
       <c r="AB59" t="n">
         <v>3474.733514961975</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>-4530.027041861892</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AJ59" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI59" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP59" t="n">
+      <c r="AR59" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -11429,79 +11787,85 @@
       <c r="AB60" t="n">
         <v>497.711763975898</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-6258.688920213242</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AI60" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AJ60" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI60" t="inlineStr">
+      <c r="AK60" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP60" t="n">
+      <c r="AR60" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -11610,79 +11974,85 @@
       <c r="AB61" t="n">
         <v>1613.185978119076</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-7288.56817214465</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>嘉泥</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AI61" t="n">
         <v>1.14</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AJ61" t="n">
         <v>23.43</v>
       </c>
-      <c r="AI61" t="inlineStr">
+      <c r="AK61" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>-1.08%</t>
         </is>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>12407</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>商品銷售40.91%、勞務24.75%、餐旅服務24.17%、租賃10.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>嘉泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP61" t="n">
+      <c r="AR61" t="n">
         <v>32.06</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥成品** 建材營造 - 建設業** 交通運輸及航運 - 貨櫃運輸集散及倉儲** 金融 - 租賃業</t>
         </is>
@@ -11791,79 +12161,85 @@
       <c r="AB62" t="n">
         <v>10858.00506538839</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>-11414.74007588434</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AJ62" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP62" t="n">
+      <c r="AR62" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -11980,79 +12356,85 @@
       <c r="AB63" t="n">
         <v>27075.69858747877</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AC63" t="n">
+        <v>-7384.502217482232</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AJ63" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AK63" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP63" t="n">
+      <c r="AR63" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -12169,79 +12551,85 @@
       <c r="AB64" t="n">
         <v>35684.01167189586</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AC64" t="n">
+        <v>23467.68437660606</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AJ64" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP64" t="n">
+      <c r="AR64" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -12358,79 +12746,85 @@
       <c r="AB65" t="n">
         <v>26442.70984600481</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AC65" t="n">
+        <v>25554.86959465847</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AJ65" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP65" t="n">
+      <c r="AR65" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -12547,79 +12941,85 @@
       <c r="AB66" t="n">
         <v>24596.62322352399</v>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AC66" t="n">
+        <v>36622.4443203891</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AI66" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AJ66" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP66" t="n">
+      <c r="AR66" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -12736,79 +13136,85 @@
       <c r="AB67" t="n">
         <v>25977.17209397512</v>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AC67" t="n">
+        <v>18327.18265309756</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AI67" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AJ67" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP67" t="n">
+      <c r="AR67" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -12925,79 +13331,85 @@
       <c r="AB68" t="n">
         <v>25376.21514331875</v>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AC68" t="n">
+        <v>36762.19211363762</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP68" t="n">
+      <c r="AR68" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -13114,79 +13526,85 @@
       <c r="AB69" t="n">
         <v>25248.52771945327</v>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AC69" t="n">
+        <v>30817.79005704335</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AI69" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP69" t="n">
+      <c r="AR69" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -13295,79 +13713,85 @@
       <c r="AB70" t="n">
         <v>12235.31225592547</v>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AC70" t="n">
+        <v>31117.1663073616</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AI70" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AJ70" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP70" t="n">
+      <c r="AR70" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -13476,79 +13900,85 @@
       <c r="AB71" t="n">
         <v>6429.224681094915</v>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AC71" t="n">
+        <v>34900.25237731097</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AI71" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP71" t="n">
+      <c r="AR71" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -13657,79 +14087,85 @@
       <c r="AB72" t="n">
         <v>-15754.12850652171</v>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AC72" t="n">
+        <v>26799.94048500854</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP72" t="n">
+      <c r="AR72" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -13838,79 +14274,85 @@
       <c r="AB73" t="n">
         <v>-28064.64549927542</v>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC73" t="n">
+        <v>-2039.879408200396</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>4.97</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>13.87</v>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>13.45%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>156935</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AP73" t="n">
+      <c r="AR73" t="n">
         <v>50.05</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
@@ -14027,79 +14469,85 @@
       <c r="AB74" t="n">
         <v>-12855.46518022588</v>
       </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AC74" t="n">
+        <v>-52867.23836176805</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr">
+      <c r="AH74" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AI74" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH74" t="n">
+      <c r="AJ74" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI74" t="inlineStr">
+      <c r="AK74" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ74" t="inlineStr">
+      <c r="AL74" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK74" t="n">
+      <c r="AM74" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AN74" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AO74" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP74" t="n">
+      <c r="AR74" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -14216,79 +14664,85 @@
       <c r="AB75" t="n">
         <v>-7929.271593280179</v>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AC75" t="n">
+        <v>-56151.74110390523</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
+      <c r="AH75" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AI75" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH75" t="n">
+      <c r="AJ75" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI75" t="inlineStr">
+      <c r="AK75" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ75" t="inlineStr">
+      <c r="AL75" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK75" t="n">
+      <c r="AM75" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AN75" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AO75" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP75" t="n">
+      <c r="AR75" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -14405,79 +14859,85 @@
       <c r="AB76" t="n">
         <v>35660.56576948829</v>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AC76" t="n">
+        <v>-55707.10251844014</v>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF76" t="inlineStr">
+      <c r="AH76" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AI76" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AJ76" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI76" t="inlineStr">
+      <c r="AK76" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ76" t="inlineStr">
+      <c r="AL76" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK76" t="n">
+      <c r="AM76" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AN76" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AO76" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP76" t="n">
+      <c r="AR76" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -14594,79 +15054,85 @@
       <c r="AB77" t="n">
         <v>36492.01209854014</v>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AC77" t="n">
+        <v>-35996.11212339466</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF77" t="inlineStr">
+      <c r="AH77" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AI77" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH77" t="n">
+      <c r="AJ77" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AK77" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AL77" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK77" t="n">
+      <c r="AM77" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AN77" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AO77" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP77" t="n">
+      <c r="AR77" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -14783,79 +15249,85 @@
       <c r="AB78" t="n">
         <v>37348.58333324036</v>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AC78" t="n">
+        <v>-53484.56285695902</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF78" t="inlineStr">
+      <c r="AH78" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AI78" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH78" t="n">
+      <c r="AJ78" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI78" t="inlineStr">
+      <c r="AK78" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ78" t="inlineStr">
+      <c r="AL78" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK78" t="n">
+      <c r="AM78" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AN78" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AO78" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP78" t="n">
+      <c r="AR78" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -14972,79 +15444,85 @@
       <c r="AB79" t="n">
         <v>26613.01067147421</v>
       </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AC79" t="n">
+        <v>-72728.97740240819</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF79" t="inlineStr">
+      <c r="AH79" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AI79" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH79" t="n">
+      <c r="AJ79" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI79" t="inlineStr">
+      <c r="AK79" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ79" t="inlineStr">
+      <c r="AL79" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK79" t="n">
+      <c r="AM79" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AN79" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AO79" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP79" t="n">
+      <c r="AR79" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -15161,79 +15639,85 @@
       <c r="AB80" t="n">
         <v>24636.50328273069</v>
       </c>
-      <c r="AC80" t="inlineStr">
+      <c r="AC80" t="n">
+        <v>-92495.49250639189</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AG80" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr">
+      <c r="AH80" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AI80" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH80" t="n">
+      <c r="AJ80" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AK80" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK80" t="n">
+      <c r="AM80" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AN80" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AO80" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP80" t="n">
+      <c r="AR80" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -15342,79 +15826,85 @@
       <c r="AB81" t="n">
         <v>-20608.56385098195</v>
       </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AC81" t="n">
+        <v>-96160.19423337288</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AG81" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF81" t="inlineStr">
+      <c r="AH81" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AI81" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AJ81" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI81" t="inlineStr">
+      <c r="AK81" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ81" t="inlineStr">
+      <c r="AL81" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK81" t="n">
+      <c r="AM81" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AN81" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AO81" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP81" t="n">
+      <c r="AR81" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -15523,79 +16013,85 @@
       <c r="AB82" t="n">
         <v>-20131.42841429788</v>
       </c>
-      <c r="AC82" t="inlineStr">
+      <c r="AC82" t="n">
+        <v>-91635.42328706731</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AF82" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE82" t="inlineStr">
+      <c r="AG82" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF82" t="inlineStr">
+      <c r="AH82" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AI82" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH82" t="n">
+      <c r="AJ82" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AK82" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
+      <c r="AL82" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK82" t="n">
+      <c r="AM82" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL82" t="inlineStr">
+      <c r="AN82" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
+      <c r="AO82" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN82" t="inlineStr">
+      <c r="AP82" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP82" t="n">
+      <c r="AR82" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS82" t="inlineStr">
+      <c r="AU82" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -15704,79 +16200,85 @@
       <c r="AB83" t="n">
         <v>-42400.4961055882</v>
       </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AC83" t="n">
+        <v>-100962.826045035</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AG83" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
+      <c r="AH83" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AI83" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH83" t="n">
+      <c r="AJ83" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI83" t="inlineStr">
+      <c r="AK83" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ83" t="inlineStr">
+      <c r="AL83" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK83" t="n">
+      <c r="AM83" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL83" t="inlineStr">
+      <c r="AN83" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AO83" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AQ83" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP83" t="n">
+      <c r="AR83" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS83" t="inlineStr">
+      <c r="AU83" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>
@@ -15885,79 +16387,85 @@
       <c r="AB84" t="n">
         <v>-51280.4242084638</v>
       </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AC84" t="n">
+        <v>-105002.1502113171</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="inlineStr">
         <is>
           <t>台泥</t>
         </is>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AF84" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AE84" t="inlineStr">
+      <c r="AG84" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF84" t="inlineStr">
+      <c r="AH84" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AI84" t="n">
         <v>4.52</v>
       </c>
-      <c r="AH84" t="n">
+      <c r="AJ84" t="n">
         <v>23.7</v>
       </c>
-      <c r="AI84" t="inlineStr">
+      <c r="AK84" t="inlineStr">
         <is>
           <t>16.86%</t>
         </is>
       </c>
-      <c r="AJ84" t="inlineStr">
+      <c r="AL84" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="AK84" t="n">
+      <c r="AM84" t="n">
         <v>18.63</v>
       </c>
-      <c r="AL84" t="inlineStr">
+      <c r="AN84" t="inlineStr">
         <is>
           <t>227291</t>
         </is>
       </c>
-      <c r="AM84" t="inlineStr">
+      <c r="AO84" t="inlineStr">
         <is>
           <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AN84" t="inlineStr">
+      <c r="AP84" t="inlineStr">
         <is>
           <t>台泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AO84" t="inlineStr">
+      <c r="AQ84" t="inlineStr">
         <is>
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="AP84" t="n">
+      <c r="AR84" t="n">
         <v>33.02</v>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AU84" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>

--- a/Result/checksun/水泥工業.xlsx
+++ b/Result/checksun/水泥工業.xlsx
@@ -722,16 +722,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2255,20 +2255,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3568,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3784,16 +3784,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5532,16 +5532,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5758,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6193,16 +6193,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6412,13 +6412,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -6631,16 +6631,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6850,20 +6850,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>-4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7069,20 +7069,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7288,20 +7288,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7941,16 +7941,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8163,17 +8163,17 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8382,17 +8382,17 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -8601,17 +8601,17 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8817,16 +8817,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -9258,17 +9258,17 @@
         <v>-2</v>
       </c>
       <c r="B41" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
       </c>
       <c r="D41" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9477,17 +9477,17 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9693,20 +9693,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10349,17 +10349,17 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -10565,16 +10565,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10784,13 +10784,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
@@ -11003,16 +11003,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11222,20 +11222,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="n">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -11441,16 +11441,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11660,20 +11660,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>41</v>
+        <v>-25</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11882,17 +11882,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12098,20 +12098,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12754,17 +12754,17 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12982,10 +12982,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C58" t="n">
         <v>-1</v>
@@ -13209,16 +13209,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13436,16 +13436,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13663,16 +13663,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13893,17 +13893,17 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14120,17 +14120,17 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" t="n">
-        <v>78</v>
+        <v>-9</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14344,16 +14344,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -14571,20 +14571,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15248,16 +15248,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -15467,16 +15467,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15689,10 +15689,10 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>32</v>
@@ -15905,20 +15905,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C71" t="n">
         <v>-1</v>
       </c>
       <c r="D71" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -16124,20 +16124,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -16343,20 +16343,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16562,20 +16562,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C74" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>94</v>
+        <v>-18</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16781,20 +16781,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -17000,20 +17000,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
